--- a/results/benmark记录.xlsx
+++ b/results/benmark记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\论文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\github\wsb_meta\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B515EBF2-1053-46FD-8C50-89298C8EE763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB024980-DA81-429A-8A69-762295E46ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="82">
   <si>
     <t>30n20b8</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,14 @@
     <t>non</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这两行应排除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -522,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -558,6 +566,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView topLeftCell="F43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -5148,12 +5159,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD65E3-8934-424F-8DF5-5D613ABC58CA}">
   <dimension ref="B1:AC110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107:F110"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
     <col min="8" max="8" width="11.08203125" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" customWidth="1"/>
     <col min="18" max="18" width="12.1640625" customWidth="1"/>
@@ -5569,7 +5581,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E9" s="22">
         <v>2.2026786804199201</v>
@@ -7423,7 +7435,7 @@
         <v>727.9</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" ref="F39:F62" si="15">(E42-$E$37)/$E$37</f>
+        <f t="shared" ref="F42:F62" si="15">(E42-$E$37)/$E$37</f>
         <v>5.3867403314916814E-3</v>
       </c>
       <c r="G42" s="7">
@@ -8696,6 +8708,9 @@
         <f t="shared" si="17"/>
         <v>6.3628225095459658</v>
       </c>
+      <c r="I73" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="K73">
         <v>6.3628225095459658</v>
       </c>
@@ -8729,6 +8744,7 @@
         <f t="shared" si="17"/>
         <v>0.18640598797782329</v>
       </c>
+      <c r="I74" s="28"/>
       <c r="K74">
         <v>0.18640598797782329</v>
       </c>
@@ -9433,6 +9449,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I73:I74"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F7:F31">
     <cfRule type="colorScale" priority="25">
